--- a/prac_11.xlsx
+++ b/prac_11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -108,6 +108,18 @@
       </rPr>
       <t xml:space="preserve"> is written because this name is not in the first table.</t>
     </r>
+  </si>
+  <si>
+    <t>If any value from big table will be changed that is in the VLOOKUP's table will also be changed accordingly.</t>
+  </si>
+  <si>
+    <t>(like Amit's final test marks has been changed 90 to 100).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we don't want this feature we can just select all column values those have VLOOKUP formula and copy that </t>
+  </si>
+  <si>
+    <t>by pressing ctrl+c and past that "paste as value" by right clicking on the selected content</t>
   </si>
 </sst>
 </file>
@@ -244,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -263,10 +275,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,71 +288,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -643,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -656,13 +609,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="1"/>
       <c r="G1" s="12" t="s">
         <v>17</v>
@@ -708,12 +661,12 @@
       <c r="E3" s="6">
         <v>45</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="6">
         <f>VLOOKUP(G3,$A$2:$E$12,5,)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -862,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -967,18 +920,47 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A16:I16"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A12 A14:A18">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
